--- a/Code/Results/Cases/Case_5_201/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_201/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.023866597785184</v>
+        <v>1.067679594307383</v>
       </c>
       <c r="D2">
-        <v>1.038777754927363</v>
+        <v>1.066407713249685</v>
       </c>
       <c r="E2">
-        <v>1.036168485715741</v>
+        <v>1.071452302287769</v>
       </c>
       <c r="F2">
-        <v>1.04598819469396</v>
+        <v>1.079542135599915</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051808223324889</v>
+        <v>1.046038474011035</v>
       </c>
       <c r="J2">
-        <v>1.045356165077591</v>
+        <v>1.072623263039359</v>
       </c>
       <c r="K2">
-        <v>1.049722048555594</v>
+        <v>1.069118343834025</v>
       </c>
       <c r="L2">
-        <v>1.047145923655426</v>
+        <v>1.07414943788308</v>
       </c>
       <c r="M2">
-        <v>1.056841968962732</v>
+        <v>1.082217914197944</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.030848680007725</v>
+        <v>1.069114138464886</v>
       </c>
       <c r="D3">
-        <v>1.043979788809676</v>
+        <v>1.06748589851349</v>
       </c>
       <c r="E3">
-        <v>1.041999081852365</v>
+        <v>1.072692109069219</v>
       </c>
       <c r="F3">
-        <v>1.051815187796188</v>
+        <v>1.080775892446987</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053712889679286</v>
+        <v>1.046348868933508</v>
       </c>
       <c r="J3">
-        <v>1.050532301821681</v>
+        <v>1.073711991790586</v>
       </c>
       <c r="K3">
-        <v>1.054079243815489</v>
+        <v>1.070011460488645</v>
       </c>
       <c r="L3">
-        <v>1.052121363757355</v>
+        <v>1.075204755659586</v>
       </c>
       <c r="M3">
-        <v>1.061825381433926</v>
+        <v>1.08326875024748</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.035245839276772</v>
+        <v>1.07004180243142</v>
       </c>
       <c r="D4">
-        <v>1.047258286210141</v>
+        <v>1.06818283535275</v>
       </c>
       <c r="E4">
-        <v>1.045676688448917</v>
+        <v>1.073494016840617</v>
       </c>
       <c r="F4">
-        <v>1.055490149095464</v>
+        <v>1.081573801282443</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054900795215351</v>
+        <v>1.046548065051609</v>
       </c>
       <c r="J4">
-        <v>1.053788991625406</v>
+        <v>1.074415421533423</v>
       </c>
       <c r="K4">
-        <v>1.056817935937109</v>
+        <v>1.070588047754984</v>
       </c>
       <c r="L4">
-        <v>1.055253402972065</v>
+        <v>1.075886719912771</v>
       </c>
       <c r="M4">
-        <v>1.064961990690783</v>
+        <v>1.083947726777279</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.037066980164064</v>
+        <v>1.070431657631805</v>
       </c>
       <c r="D5">
-        <v>1.048616586724651</v>
+        <v>1.06847565750326</v>
       </c>
       <c r="E5">
-        <v>1.047201082737274</v>
+        <v>1.073831062954426</v>
       </c>
       <c r="F5">
-        <v>1.057013346338266</v>
+        <v>1.081909145960604</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055389936726806</v>
+        <v>1.046631413012683</v>
       </c>
       <c r="J5">
-        <v>1.055136979386079</v>
+        <v>1.074710895026525</v>
       </c>
       <c r="K5">
-        <v>1.057950834811945</v>
+        <v>1.070830131727059</v>
       </c>
       <c r="L5">
-        <v>1.056550174800434</v>
+        <v>1.076173205838833</v>
       </c>
       <c r="M5">
-        <v>1.066260536980971</v>
+        <v>1.084232935555082</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.037371190369419</v>
+        <v>1.070497108268382</v>
       </c>
       <c r="D6">
-        <v>1.048843507025523</v>
+        <v>1.068524813729912</v>
       </c>
       <c r="E6">
-        <v>1.047455795331254</v>
+        <v>1.073887650118832</v>
       </c>
       <c r="F6">
-        <v>1.057267852692967</v>
+        <v>1.081965446253594</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055471475785758</v>
+        <v>1.046645384420545</v>
       </c>
       <c r="J6">
-        <v>1.055362102757685</v>
+        <v>1.074760491852502</v>
       </c>
       <c r="K6">
-        <v>1.058139995982601</v>
+        <v>1.070870760388987</v>
       </c>
       <c r="L6">
-        <v>1.056766766724717</v>
+        <v>1.076221295747096</v>
       </c>
       <c r="M6">
-        <v>1.066477418078478</v>
+        <v>1.084280809783682</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.035270279342176</v>
+        <v>1.07004701221936</v>
       </c>
       <c r="D7">
-        <v>1.047276513145722</v>
+        <v>1.068186748721873</v>
       </c>
       <c r="E7">
-        <v>1.045697141219385</v>
+        <v>1.073498520761702</v>
       </c>
       <c r="F7">
-        <v>1.055510586217011</v>
+        <v>1.08157828254871</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054907370919631</v>
+        <v>1.046549180298447</v>
       </c>
       <c r="J7">
-        <v>1.053807085179307</v>
+        <v>1.07441937063674</v>
       </c>
       <c r="K7">
-        <v>1.056833145163666</v>
+        <v>1.07059128372096</v>
       </c>
       <c r="L7">
-        <v>1.05527080758844</v>
+        <v>1.075890548780579</v>
       </c>
       <c r="M7">
-        <v>1.06497941960161</v>
+        <v>1.083951538662844</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.026252143420054</v>
+        <v>1.068164528511769</v>
       </c>
       <c r="D8">
-        <v>1.040554553211259</v>
+        <v>1.066772241854072</v>
       </c>
       <c r="E8">
-        <v>1.038159367684265</v>
+        <v>1.071871371027985</v>
       </c>
       <c r="F8">
-        <v>1.047977917772194</v>
+        <v>1.079959177103673</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05246139284781</v>
+        <v>1.046143715684216</v>
       </c>
       <c r="J8">
-        <v>1.04712529757697</v>
+        <v>1.07299142343431</v>
       </c>
       <c r="K8">
-        <v>1.051211840139445</v>
+        <v>1.069420451353884</v>
       </c>
       <c r="L8">
-        <v>1.048846112011633</v>
+        <v>1.074506274913979</v>
       </c>
       <c r="M8">
-        <v>1.058544969759478</v>
+        <v>1.082573254714964</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.009363938812814</v>
+        <v>1.064842687390796</v>
       </c>
       <c r="D9">
-        <v>1.027990683085541</v>
+        <v>1.064274062646977</v>
       </c>
       <c r="E9">
-        <v>1.024093190069006</v>
+        <v>1.069001456812278</v>
       </c>
       <c r="F9">
-        <v>1.033918830188645</v>
+        <v>1.077102798208031</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047790036606047</v>
+        <v>1.045416553610883</v>
       </c>
       <c r="J9">
-        <v>1.03459031096055</v>
+        <v>1.070467011085585</v>
       </c>
       <c r="K9">
-        <v>1.040645386807731</v>
+        <v>1.067347083910478</v>
       </c>
       <c r="L9">
-        <v>1.036807102495388</v>
+        <v>1.072060008845984</v>
       </c>
       <c r="M9">
-        <v>1.046484565030717</v>
+        <v>1.08013687617183</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9973220738563524</v>
+        <v>1.062624699915224</v>
       </c>
       <c r="D10">
-        <v>1.019056757781775</v>
+        <v>1.062604657164433</v>
       </c>
       <c r="E10">
-        <v>1.014104198554072</v>
+        <v>1.067086188287852</v>
       </c>
       <c r="F10">
-        <v>1.023934086780452</v>
+        <v>1.0751961303888</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044401806717383</v>
+        <v>1.04492319059676</v>
       </c>
       <c r="J10">
-        <v>1.025642344249357</v>
+        <v>1.068778366064114</v>
       </c>
       <c r="K10">
-        <v>1.033090255058746</v>
+        <v>1.065957817945278</v>
       </c>
       <c r="L10">
-        <v>1.028223382774553</v>
+        <v>1.070424276395139</v>
       </c>
       <c r="M10">
-        <v>1.037884244557226</v>
+        <v>1.078507292869472</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9918930978607327</v>
+        <v>1.061663408848762</v>
       </c>
       <c r="D11">
-        <v>1.015036814344854</v>
+        <v>1.061880811749488</v>
       </c>
       <c r="E11">
-        <v>1.009612127404436</v>
+        <v>1.066256338498263</v>
       </c>
       <c r="F11">
-        <v>1.019443958581816</v>
+        <v>1.074369906085119</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042861707118896</v>
+        <v>1.044707507780898</v>
       </c>
       <c r="J11">
-        <v>1.021607066161506</v>
+        <v>1.06804576642748</v>
       </c>
       <c r="K11">
-        <v>1.029680622457173</v>
+        <v>1.06535454990176</v>
       </c>
       <c r="L11">
-        <v>1.024355021464566</v>
+        <v>1.069714785383795</v>
       </c>
       <c r="M11">
-        <v>1.034008275475199</v>
+        <v>1.077800360891305</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9898414546615808</v>
+        <v>1.061306203454833</v>
       </c>
       <c r="D12">
-        <v>1.013519022203074</v>
+        <v>1.061611792551954</v>
       </c>
       <c r="E12">
-        <v>1.007916420407899</v>
+        <v>1.065948012381001</v>
       </c>
       <c r="F12">
-        <v>1.017749010752227</v>
+        <v>1.074062911940763</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042277911344878</v>
+        <v>1.044627083802169</v>
       </c>
       <c r="J12">
-        <v>1.020082052821303</v>
+        <v>1.0677734312294</v>
       </c>
       <c r="K12">
-        <v>1.028391722754928</v>
+        <v>1.065130209748009</v>
       </c>
       <c r="L12">
-        <v>1.022893509792401</v>
+        <v>1.069451063685283</v>
       </c>
       <c r="M12">
-        <v>1.032543888700046</v>
+        <v>1.077537574279896</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9902831753206843</v>
+        <v>1.061382831610344</v>
       </c>
       <c r="D13">
-        <v>1.01384573918494</v>
+        <v>1.061669504958972</v>
       </c>
       <c r="E13">
-        <v>1.008281420271161</v>
+        <v>1.066014153197381</v>
       </c>
       <c r="F13">
-        <v>1.018113845687442</v>
+        <v>1.074128767707264</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042403681854051</v>
+        <v>1.044644349057355</v>
       </c>
       <c r="J13">
-        <v>1.020410390161871</v>
+        <v>1.067831857850194</v>
       </c>
       <c r="K13">
-        <v>1.028669238719031</v>
+        <v>1.065178343267756</v>
       </c>
       <c r="L13">
-        <v>1.023208155783787</v>
+        <v>1.069507641321918</v>
       </c>
       <c r="M13">
-        <v>1.032859153392745</v>
+        <v>1.077593952034611</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9917242414546306</v>
+        <v>1.06163388500994</v>
       </c>
       <c r="D14">
-        <v>1.014911866549776</v>
+        <v>1.061858577633595</v>
       </c>
       <c r="E14">
-        <v>1.009472526595493</v>
+        <v>1.066230853880432</v>
       </c>
       <c r="F14">
-        <v>1.019304419622792</v>
+        <v>1.074344531867579</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042813694520888</v>
+        <v>1.044700866236536</v>
       </c>
       <c r="J14">
-        <v>1.021481553419644</v>
+        <v>1.06802325952547</v>
       </c>
       <c r="K14">
-        <v>1.029574548955583</v>
+        <v>1.065336011187399</v>
       </c>
       <c r="L14">
-        <v>1.02423472641761</v>
+        <v>1.069692989864042</v>
       </c>
       <c r="M14">
-        <v>1.033887743687953</v>
+        <v>1.077778642980711</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9926073916991327</v>
+        <v>1.061788548693428</v>
       </c>
       <c r="D15">
-        <v>1.015565423489881</v>
+        <v>1.061975051470383</v>
       </c>
       <c r="E15">
-        <v>1.01020274188549</v>
+        <v>1.066364359212259</v>
       </c>
       <c r="F15">
-        <v>1.020034312567813</v>
+        <v>1.074477458233664</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043064737421621</v>
+        <v>1.044735647248933</v>
       </c>
       <c r="J15">
-        <v>1.022138006685717</v>
+        <v>1.068141159796479</v>
       </c>
       <c r="K15">
-        <v>1.030129318469274</v>
+        <v>1.065433121110703</v>
       </c>
       <c r="L15">
-        <v>1.024863907475173</v>
+        <v>1.069807164574882</v>
       </c>
       <c r="M15">
-        <v>1.034518163051932</v>
+        <v>1.077892410480759</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9976776194096888</v>
+        <v>1.062688478445375</v>
       </c>
       <c r="D16">
-        <v>1.019320203482276</v>
+        <v>1.062652675435859</v>
       </c>
       <c r="E16">
-        <v>1.014398635236095</v>
+        <v>1.067141251269107</v>
       </c>
       <c r="F16">
-        <v>1.024228398492427</v>
+        <v>1.07525095069068</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044502416747068</v>
+        <v>1.044937461383469</v>
       </c>
       <c r="J16">
-        <v>1.025906601578601</v>
+        <v>1.068826956345889</v>
       </c>
       <c r="K16">
-        <v>1.033313492916964</v>
+        <v>1.065997818633489</v>
       </c>
       <c r="L16">
-        <v>1.028476766022828</v>
+        <v>1.07047133721338</v>
       </c>
       <c r="M16">
-        <v>1.038138124996486</v>
+        <v>1.078554181680112</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000798653407447</v>
+        <v>1.063252738882951</v>
       </c>
       <c r="D17">
-        <v>1.021633678619296</v>
+        <v>1.063077465879555</v>
       </c>
       <c r="E17">
-        <v>1.016984551256484</v>
+        <v>1.067628431556768</v>
       </c>
       <c r="F17">
-        <v>1.026813222939374</v>
+        <v>1.075735972173208</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0453841802643</v>
+        <v>1.045063503408981</v>
       </c>
       <c r="J17">
-        <v>1.028226175101454</v>
+        <v>1.069256759402474</v>
       </c>
       <c r="K17">
-        <v>1.035272733536171</v>
+        <v>1.066351579332153</v>
       </c>
       <c r="L17">
-        <v>1.030701192249228</v>
+        <v>1.070887629158737</v>
       </c>
       <c r="M17">
-        <v>1.04036690373567</v>
+        <v>1.07896893961104</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.002598584092919</v>
+        <v>1.063581777172037</v>
       </c>
       <c r="D18">
-        <v>1.022968607582369</v>
+        <v>1.063325144449753</v>
       </c>
       <c r="E18">
-        <v>1.018476934753974</v>
+        <v>1.067912545105212</v>
       </c>
       <c r="F18">
-        <v>1.028304978081036</v>
+        <v>1.076018816997506</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045891513530646</v>
+        <v>1.045136823556443</v>
       </c>
       <c r="J18">
-        <v>1.029563778234473</v>
+        <v>1.069507320941725</v>
       </c>
       <c r="K18">
-        <v>1.036402310644979</v>
+        <v>1.0665577575025</v>
       </c>
       <c r="L18">
-        <v>1.031984175968397</v>
+        <v>1.071130328894869</v>
       </c>
       <c r="M18">
-        <v>1.041652384680669</v>
+        <v>1.079210734580221</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.003208914341864</v>
+        <v>1.063693956432598</v>
       </c>
       <c r="D19">
-        <v>1.023421380210749</v>
+        <v>1.063409580509604</v>
       </c>
       <c r="E19">
-        <v>1.018983155543813</v>
+        <v>1.068009412041063</v>
       </c>
       <c r="F19">
-        <v>1.028810985419301</v>
+        <v>1.076115249710844</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04606333839512</v>
+        <v>1.045161790280513</v>
       </c>
       <c r="J19">
-        <v>1.030017316731181</v>
+        <v>1.069592733119342</v>
       </c>
       <c r="K19">
-        <v>1.036785272792724</v>
+        <v>1.066628031129199</v>
       </c>
       <c r="L19">
-        <v>1.03241923624235</v>
+        <v>1.071213063614064</v>
       </c>
       <c r="M19">
-        <v>1.04208828901778</v>
+        <v>1.079293159097327</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.000465937318909</v>
+        <v>1.063192207941635</v>
       </c>
       <c r="D20">
-        <v>1.021386975248544</v>
+        <v>1.063031899685453</v>
       </c>
       <c r="E20">
-        <v>1.016708769835213</v>
+        <v>1.067576166972855</v>
       </c>
       <c r="F20">
-        <v>1.026537557623</v>
+        <v>1.075683940193396</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045290303115977</v>
+        <v>1.045050000785792</v>
       </c>
       <c r="J20">
-        <v>1.027978909672028</v>
+        <v>1.069210659627973</v>
       </c>
       <c r="K20">
-        <v>1.035063903731514</v>
+        <v>1.066313641191712</v>
       </c>
       <c r="L20">
-        <v>1.030464043548304</v>
+        <v>1.070842977031089</v>
       </c>
       <c r="M20">
-        <v>1.040129292253446</v>
+        <v>1.078924453102397</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9913008760220584</v>
+        <v>1.061559959926592</v>
       </c>
       <c r="D21">
-        <v>1.014598613739427</v>
+        <v>1.06180290463212</v>
       </c>
       <c r="E21">
-        <v>1.009122543028242</v>
+        <v>1.066167043252221</v>
       </c>
       <c r="F21">
-        <v>1.018954591603663</v>
+        <v>1.074280997426545</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042693286561182</v>
+        <v>1.044684231897627</v>
       </c>
       <c r="J21">
-        <v>1.021166860943673</v>
+        <v>1.067966902471658</v>
       </c>
       <c r="K21">
-        <v>1.029308590451746</v>
+        <v>1.065289589104668</v>
       </c>
       <c r="L21">
-        <v>1.023933122876576</v>
+        <v>1.069638414478438</v>
       </c>
       <c r="M21">
-        <v>1.033585546644094</v>
+        <v>1.077724261666397</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9853338320672166</v>
+        <v>1.060532893239586</v>
       </c>
       <c r="D22">
-        <v>1.010187064077667</v>
+        <v>1.061029312654418</v>
       </c>
       <c r="E22">
-        <v>1.004194468963142</v>
+        <v>1.065280589309959</v>
       </c>
       <c r="F22">
-        <v>1.014028797940795</v>
+        <v>1.073398344745313</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040992100244719</v>
+        <v>1.044452465562613</v>
       </c>
       <c r="J22">
-        <v>1.016731512750138</v>
+        <v>1.067183656655331</v>
       </c>
       <c r="K22">
-        <v>1.025559378921643</v>
+        <v>1.06464422372204</v>
       </c>
       <c r="L22">
-        <v>1.019683288054844</v>
+        <v>1.068879985169137</v>
       </c>
       <c r="M22">
-        <v>1.029327371971434</v>
+        <v>1.076968491307627</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9885174980888375</v>
+        <v>1.061077439181403</v>
       </c>
       <c r="D23">
-        <v>1.012539979208308</v>
+        <v>1.061439492341994</v>
       </c>
       <c r="E23">
-        <v>1.00682270509784</v>
+        <v>1.065750562321907</v>
       </c>
       <c r="F23">
-        <v>1.016655795137198</v>
+        <v>1.073866310645375</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041900690083446</v>
+        <v>1.044575499659265</v>
       </c>
       <c r="J23">
-        <v>1.019097938108844</v>
+        <v>1.067598989546025</v>
       </c>
       <c r="K23">
-        <v>1.02755988833459</v>
+        <v>1.06498648765551</v>
       </c>
       <c r="L23">
-        <v>1.021950495165729</v>
+        <v>1.069282145828865</v>
       </c>
       <c r="M23">
-        <v>1.03159902116444</v>
+        <v>1.077369250838985</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.000616340588786</v>
+        <v>1.063219559531654</v>
       </c>
       <c r="D24">
-        <v>1.02149849449959</v>
+        <v>1.06305248937909</v>
       </c>
       <c r="E24">
-        <v>1.016833432685408</v>
+        <v>1.067599783244402</v>
       </c>
       <c r="F24">
-        <v>1.026662167986255</v>
+        <v>1.075707451390623</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045332743685381</v>
+        <v>1.045056102651841</v>
       </c>
       <c r="J24">
-        <v>1.028090685611524</v>
+        <v>1.069231490549623</v>
       </c>
       <c r="K24">
-        <v>1.035158305647087</v>
+        <v>1.066330784312363</v>
       </c>
       <c r="L24">
-        <v>1.030571245468075</v>
+        <v>1.070863153764761</v>
       </c>
       <c r="M24">
-        <v>1.040236703413515</v>
+        <v>1.078944555030889</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.013859003398563</v>
+        <v>1.065702045544786</v>
       </c>
       <c r="D25">
-        <v>1.031331175836807</v>
+        <v>1.064920586572346</v>
       </c>
       <c r="E25">
-        <v>1.027830704055783</v>
+        <v>1.069743735003671</v>
       </c>
       <c r="F25">
-        <v>1.037654660992098</v>
+        <v>1.077841652257167</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049043516998188</v>
+        <v>1.045606051622895</v>
       </c>
       <c r="J25">
-        <v>1.037928792131811</v>
+        <v>1.071120622810169</v>
       </c>
       <c r="K25">
-        <v>1.043461833555129</v>
+        <v>1.067884325135804</v>
       </c>
       <c r="L25">
-        <v>1.040011817321475</v>
+        <v>1.072693275409668</v>
       </c>
       <c r="M25">
-        <v>1.049695263336503</v>
+        <v>1.080767665029961</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_201/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_201/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.067679594307383</v>
+        <v>1.023866597785182</v>
       </c>
       <c r="D2">
-        <v>1.066407713249685</v>
+        <v>1.038777754927361</v>
       </c>
       <c r="E2">
-        <v>1.071452302287769</v>
+        <v>1.03616848571574</v>
       </c>
       <c r="F2">
-        <v>1.079542135599915</v>
+        <v>1.045988194693958</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046038474011035</v>
+        <v>1.051808223324888</v>
       </c>
       <c r="J2">
-        <v>1.072623263039359</v>
+        <v>1.045356165077589</v>
       </c>
       <c r="K2">
-        <v>1.069118343834025</v>
+        <v>1.049722048555592</v>
       </c>
       <c r="L2">
-        <v>1.07414943788308</v>
+        <v>1.047145923655425</v>
       </c>
       <c r="M2">
-        <v>1.082217914197944</v>
+        <v>1.05684196896273</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.069114138464886</v>
+        <v>1.030848680007724</v>
       </c>
       <c r="D3">
-        <v>1.06748589851349</v>
+        <v>1.043979788809674</v>
       </c>
       <c r="E3">
-        <v>1.072692109069219</v>
+        <v>1.041999081852363</v>
       </c>
       <c r="F3">
-        <v>1.080775892446987</v>
+        <v>1.051815187796186</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046348868933508</v>
+        <v>1.053712889679286</v>
       </c>
       <c r="J3">
-        <v>1.073711991790586</v>
+        <v>1.050532301821679</v>
       </c>
       <c r="K3">
-        <v>1.070011460488645</v>
+        <v>1.054079243815488</v>
       </c>
       <c r="L3">
-        <v>1.075204755659586</v>
+        <v>1.052121363757353</v>
       </c>
       <c r="M3">
-        <v>1.08326875024748</v>
+        <v>1.061825381433925</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.07004180243142</v>
+        <v>1.035245839276771</v>
       </c>
       <c r="D4">
-        <v>1.06818283535275</v>
+        <v>1.04725828621014</v>
       </c>
       <c r="E4">
-        <v>1.073494016840617</v>
+        <v>1.045676688448917</v>
       </c>
       <c r="F4">
-        <v>1.081573801282443</v>
+        <v>1.055490149095464</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046548065051609</v>
+        <v>1.05490079521535</v>
       </c>
       <c r="J4">
-        <v>1.074415421533423</v>
+        <v>1.053788991625406</v>
       </c>
       <c r="K4">
-        <v>1.070588047754984</v>
+        <v>1.056817935937108</v>
       </c>
       <c r="L4">
-        <v>1.075886719912771</v>
+        <v>1.055253402972065</v>
       </c>
       <c r="M4">
-        <v>1.083947726777279</v>
+        <v>1.064961990690783</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.070431657631805</v>
+        <v>1.037066980164065</v>
       </c>
       <c r="D5">
-        <v>1.06847565750326</v>
+        <v>1.048616586724651</v>
       </c>
       <c r="E5">
-        <v>1.073831062954426</v>
+        <v>1.047201082737274</v>
       </c>
       <c r="F5">
-        <v>1.081909145960604</v>
+        <v>1.057013346338266</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046631413012683</v>
+        <v>1.055389936726806</v>
       </c>
       <c r="J5">
-        <v>1.074710895026525</v>
+        <v>1.055136979386079</v>
       </c>
       <c r="K5">
-        <v>1.070830131727059</v>
+        <v>1.057950834811946</v>
       </c>
       <c r="L5">
-        <v>1.076173205838833</v>
+        <v>1.056550174800434</v>
       </c>
       <c r="M5">
-        <v>1.084232935555082</v>
+        <v>1.066260536980972</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.070497108268382</v>
+        <v>1.037371190369419</v>
       </c>
       <c r="D6">
-        <v>1.068524813729912</v>
+        <v>1.048843507025523</v>
       </c>
       <c r="E6">
-        <v>1.073887650118832</v>
+        <v>1.047455795331254</v>
       </c>
       <c r="F6">
-        <v>1.081965446253594</v>
+        <v>1.057267852692967</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046645384420545</v>
+        <v>1.055471475785758</v>
       </c>
       <c r="J6">
-        <v>1.074760491852502</v>
+        <v>1.055362102757685</v>
       </c>
       <c r="K6">
-        <v>1.070870760388987</v>
+        <v>1.058139995982601</v>
       </c>
       <c r="L6">
-        <v>1.076221295747096</v>
+        <v>1.056766766724717</v>
       </c>
       <c r="M6">
-        <v>1.084280809783682</v>
+        <v>1.066477418078479</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.07004701221936</v>
+        <v>1.035270279342177</v>
       </c>
       <c r="D7">
-        <v>1.068186748721873</v>
+        <v>1.047276513145722</v>
       </c>
       <c r="E7">
-        <v>1.073498520761702</v>
+        <v>1.045697141219385</v>
       </c>
       <c r="F7">
-        <v>1.08157828254871</v>
+        <v>1.055510586217011</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046549180298447</v>
+        <v>1.054907370919631</v>
       </c>
       <c r="J7">
-        <v>1.07441937063674</v>
+        <v>1.053807085179307</v>
       </c>
       <c r="K7">
-        <v>1.07059128372096</v>
+        <v>1.056833145163666</v>
       </c>
       <c r="L7">
-        <v>1.075890548780579</v>
+        <v>1.055270807588441</v>
       </c>
       <c r="M7">
-        <v>1.083951538662844</v>
+        <v>1.064979419601611</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.068164528511769</v>
+        <v>1.026252143420052</v>
       </c>
       <c r="D8">
-        <v>1.066772241854072</v>
+        <v>1.040554553211258</v>
       </c>
       <c r="E8">
-        <v>1.071871371027985</v>
+        <v>1.038159367684264</v>
       </c>
       <c r="F8">
-        <v>1.079959177103673</v>
+        <v>1.047977917772192</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046143715684216</v>
+        <v>1.05246139284781</v>
       </c>
       <c r="J8">
-        <v>1.07299142343431</v>
+        <v>1.04712529757697</v>
       </c>
       <c r="K8">
-        <v>1.069420451353884</v>
+        <v>1.051211840139445</v>
       </c>
       <c r="L8">
-        <v>1.074506274913979</v>
+        <v>1.048846112011632</v>
       </c>
       <c r="M8">
-        <v>1.082573254714964</v>
+        <v>1.058544969759478</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.064842687390796</v>
+        <v>1.009363938812813</v>
       </c>
       <c r="D9">
-        <v>1.064274062646977</v>
+        <v>1.02799068308554</v>
       </c>
       <c r="E9">
-        <v>1.069001456812278</v>
+        <v>1.024093190069005</v>
       </c>
       <c r="F9">
-        <v>1.077102798208031</v>
+        <v>1.033918830188644</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045416553610883</v>
+        <v>1.047790036606047</v>
       </c>
       <c r="J9">
-        <v>1.070467011085585</v>
+        <v>1.034590310960549</v>
       </c>
       <c r="K9">
-        <v>1.067347083910478</v>
+        <v>1.04064538680773</v>
       </c>
       <c r="L9">
-        <v>1.072060008845984</v>
+        <v>1.036807102495387</v>
       </c>
       <c r="M9">
-        <v>1.08013687617183</v>
+        <v>1.046484565030716</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.062624699915224</v>
+        <v>0.9973220738563531</v>
       </c>
       <c r="D10">
-        <v>1.062604657164433</v>
+        <v>1.019056757781775</v>
       </c>
       <c r="E10">
-        <v>1.067086188287852</v>
+        <v>1.014104198554073</v>
       </c>
       <c r="F10">
-        <v>1.0751961303888</v>
+        <v>1.023934086780453</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04492319059676</v>
+        <v>1.044401806717383</v>
       </c>
       <c r="J10">
-        <v>1.068778366064114</v>
+        <v>1.025642344249358</v>
       </c>
       <c r="K10">
-        <v>1.065957817945278</v>
+        <v>1.033090255058746</v>
       </c>
       <c r="L10">
-        <v>1.070424276395139</v>
+        <v>1.028223382774554</v>
       </c>
       <c r="M10">
-        <v>1.078507292869472</v>
+        <v>1.037884244557227</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.061663408848762</v>
+        <v>0.9918930978607323</v>
       </c>
       <c r="D11">
-        <v>1.061880811749488</v>
+        <v>1.015036814344853</v>
       </c>
       <c r="E11">
-        <v>1.066256338498263</v>
+        <v>1.009612127404436</v>
       </c>
       <c r="F11">
-        <v>1.074369906085119</v>
+        <v>1.019443958581816</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044707507780898</v>
+        <v>1.042861707118896</v>
       </c>
       <c r="J11">
-        <v>1.06804576642748</v>
+        <v>1.021607066161506</v>
       </c>
       <c r="K11">
-        <v>1.06535454990176</v>
+        <v>1.029680622457172</v>
       </c>
       <c r="L11">
-        <v>1.069714785383795</v>
+        <v>1.024355021464566</v>
       </c>
       <c r="M11">
-        <v>1.077800360891305</v>
+        <v>1.034008275475199</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.061306203454833</v>
+        <v>0.9898414546615822</v>
       </c>
       <c r="D12">
-        <v>1.061611792551954</v>
+        <v>1.013519022203076</v>
       </c>
       <c r="E12">
-        <v>1.065948012381001</v>
+        <v>1.0079164204079</v>
       </c>
       <c r="F12">
-        <v>1.074062911940763</v>
+        <v>1.017749010752228</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044627083802169</v>
+        <v>1.042277911344879</v>
       </c>
       <c r="J12">
-        <v>1.0677734312294</v>
+        <v>1.020082052821304</v>
       </c>
       <c r="K12">
-        <v>1.065130209748009</v>
+        <v>1.02839172275493</v>
       </c>
       <c r="L12">
-        <v>1.069451063685283</v>
+        <v>1.022893509792402</v>
       </c>
       <c r="M12">
-        <v>1.077537574279896</v>
+        <v>1.032543888700047</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.061382831610344</v>
+        <v>0.990283175320686</v>
       </c>
       <c r="D13">
-        <v>1.061669504958972</v>
+        <v>1.013845739184942</v>
       </c>
       <c r="E13">
-        <v>1.066014153197381</v>
+        <v>1.008281420271163</v>
       </c>
       <c r="F13">
-        <v>1.074128767707264</v>
+        <v>1.018113845687444</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044644349057355</v>
+        <v>1.042403681854052</v>
       </c>
       <c r="J13">
-        <v>1.067831857850194</v>
+        <v>1.020410390161872</v>
       </c>
       <c r="K13">
-        <v>1.065178343267756</v>
+        <v>1.028669238719032</v>
       </c>
       <c r="L13">
-        <v>1.069507641321918</v>
+        <v>1.023208155783789</v>
       </c>
       <c r="M13">
-        <v>1.077593952034611</v>
+        <v>1.032859153392746</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.06163388500994</v>
+        <v>0.991724241454633</v>
       </c>
       <c r="D14">
-        <v>1.061858577633595</v>
+        <v>1.014911866549778</v>
       </c>
       <c r="E14">
-        <v>1.066230853880432</v>
+        <v>1.009472526595495</v>
       </c>
       <c r="F14">
-        <v>1.074344531867579</v>
+        <v>1.019304419622795</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044700866236536</v>
+        <v>1.042813694520889</v>
       </c>
       <c r="J14">
-        <v>1.06802325952547</v>
+        <v>1.021481553419646</v>
       </c>
       <c r="K14">
-        <v>1.065336011187399</v>
+        <v>1.029574548955584</v>
       </c>
       <c r="L14">
-        <v>1.069692989864042</v>
+        <v>1.024234726417613</v>
       </c>
       <c r="M14">
-        <v>1.077778642980711</v>
+        <v>1.033887743687955</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.061788548693428</v>
+        <v>0.992607391699131</v>
       </c>
       <c r="D15">
-        <v>1.061975051470383</v>
+        <v>1.01556542348988</v>
       </c>
       <c r="E15">
-        <v>1.066364359212259</v>
+        <v>1.010202741885488</v>
       </c>
       <c r="F15">
-        <v>1.074477458233664</v>
+        <v>1.020034312567812</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044735647248933</v>
+        <v>1.04306473742162</v>
       </c>
       <c r="J15">
-        <v>1.068141159796479</v>
+        <v>1.022138006685716</v>
       </c>
       <c r="K15">
-        <v>1.065433121110703</v>
+        <v>1.030129318469273</v>
       </c>
       <c r="L15">
-        <v>1.069807164574882</v>
+        <v>1.024863907475171</v>
       </c>
       <c r="M15">
-        <v>1.077892410480759</v>
+        <v>1.03451816305193</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.062688478445375</v>
+        <v>0.9976776194096867</v>
       </c>
       <c r="D16">
-        <v>1.062652675435859</v>
+        <v>1.019320203482274</v>
       </c>
       <c r="E16">
-        <v>1.067141251269107</v>
+        <v>1.014398635236093</v>
       </c>
       <c r="F16">
-        <v>1.07525095069068</v>
+        <v>1.024228398492425</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044937461383469</v>
+        <v>1.044502416747067</v>
       </c>
       <c r="J16">
-        <v>1.068826956345889</v>
+        <v>1.025906601578599</v>
       </c>
       <c r="K16">
-        <v>1.065997818633489</v>
+        <v>1.033313492916962</v>
       </c>
       <c r="L16">
-        <v>1.07047133721338</v>
+        <v>1.028476766022826</v>
       </c>
       <c r="M16">
-        <v>1.078554181680112</v>
+        <v>1.038138124996485</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.063252738882951</v>
+        <v>1.000798653407448</v>
       </c>
       <c r="D17">
-        <v>1.063077465879555</v>
+        <v>1.021633678619298</v>
       </c>
       <c r="E17">
-        <v>1.067628431556768</v>
+        <v>1.016984551256485</v>
       </c>
       <c r="F17">
-        <v>1.075735972173208</v>
+        <v>1.026813222939375</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045063503408981</v>
+        <v>1.0453841802643</v>
       </c>
       <c r="J17">
-        <v>1.069256759402474</v>
+        <v>1.028226175101456</v>
       </c>
       <c r="K17">
-        <v>1.066351579332153</v>
+        <v>1.035272733536172</v>
       </c>
       <c r="L17">
-        <v>1.070887629158737</v>
+        <v>1.03070119224923</v>
       </c>
       <c r="M17">
-        <v>1.07896893961104</v>
+        <v>1.040366903735671</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.063581777172037</v>
+        <v>1.00259858409292</v>
       </c>
       <c r="D18">
-        <v>1.063325144449753</v>
+        <v>1.02296860758237</v>
       </c>
       <c r="E18">
-        <v>1.067912545105212</v>
+        <v>1.018476934753975</v>
       </c>
       <c r="F18">
-        <v>1.076018816997506</v>
+        <v>1.028304978081037</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045136823556443</v>
+        <v>1.045891513530646</v>
       </c>
       <c r="J18">
-        <v>1.069507320941725</v>
+        <v>1.029563778234474</v>
       </c>
       <c r="K18">
-        <v>1.0665577575025</v>
+        <v>1.03640231064498</v>
       </c>
       <c r="L18">
-        <v>1.071130328894869</v>
+        <v>1.031984175968398</v>
       </c>
       <c r="M18">
-        <v>1.079210734580221</v>
+        <v>1.04165238468067</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.063693956432598</v>
+        <v>1.003208914341863</v>
       </c>
       <c r="D19">
-        <v>1.063409580509604</v>
+        <v>1.023421380210748</v>
       </c>
       <c r="E19">
-        <v>1.068009412041063</v>
+        <v>1.018983155543812</v>
       </c>
       <c r="F19">
-        <v>1.076115249710844</v>
+        <v>1.0288109854193</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045161790280513</v>
+        <v>1.046063338395119</v>
       </c>
       <c r="J19">
-        <v>1.069592733119342</v>
+        <v>1.030017316731179</v>
       </c>
       <c r="K19">
-        <v>1.066628031129199</v>
+        <v>1.036785272792724</v>
       </c>
       <c r="L19">
-        <v>1.071213063614064</v>
+        <v>1.032419236242349</v>
       </c>
       <c r="M19">
-        <v>1.079293159097327</v>
+        <v>1.042088289017779</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.063192207941635</v>
+        <v>1.000465937318909</v>
       </c>
       <c r="D20">
-        <v>1.063031899685453</v>
+        <v>1.021386975248544</v>
       </c>
       <c r="E20">
-        <v>1.067576166972855</v>
+        <v>1.016708769835213</v>
       </c>
       <c r="F20">
-        <v>1.075683940193396</v>
+        <v>1.026537557623</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045050000785792</v>
+        <v>1.045290303115977</v>
       </c>
       <c r="J20">
-        <v>1.069210659627973</v>
+        <v>1.027978909672028</v>
       </c>
       <c r="K20">
-        <v>1.066313641191712</v>
+        <v>1.035063903731514</v>
       </c>
       <c r="L20">
-        <v>1.070842977031089</v>
+        <v>1.030464043548303</v>
       </c>
       <c r="M20">
-        <v>1.078924453102397</v>
+        <v>1.040129292253446</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.061559959926592</v>
+        <v>0.9913008760220575</v>
       </c>
       <c r="D21">
-        <v>1.06180290463212</v>
+        <v>1.014598613739427</v>
       </c>
       <c r="E21">
-        <v>1.066167043252221</v>
+        <v>1.009122543028241</v>
       </c>
       <c r="F21">
-        <v>1.074280997426545</v>
+        <v>1.018954591603663</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044684231897627</v>
+        <v>1.042693286561183</v>
       </c>
       <c r="J21">
-        <v>1.067966902471658</v>
+        <v>1.021166860943673</v>
       </c>
       <c r="K21">
-        <v>1.065289589104668</v>
+        <v>1.029308590451746</v>
       </c>
       <c r="L21">
-        <v>1.069638414478438</v>
+        <v>1.023933122876576</v>
       </c>
       <c r="M21">
-        <v>1.077724261666397</v>
+        <v>1.033585546644094</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.060532893239586</v>
+        <v>0.9853338320672155</v>
       </c>
       <c r="D22">
-        <v>1.061029312654418</v>
+        <v>1.010187064077666</v>
       </c>
       <c r="E22">
-        <v>1.065280589309959</v>
+        <v>1.004194468963141</v>
       </c>
       <c r="F22">
-        <v>1.073398344745313</v>
+        <v>1.014028797940794</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044452465562613</v>
+        <v>1.040992100244719</v>
       </c>
       <c r="J22">
-        <v>1.067183656655331</v>
+        <v>1.016731512750138</v>
       </c>
       <c r="K22">
-        <v>1.06464422372204</v>
+        <v>1.025559378921642</v>
       </c>
       <c r="L22">
-        <v>1.068879985169137</v>
+        <v>1.019683288054843</v>
       </c>
       <c r="M22">
-        <v>1.076968491307627</v>
+        <v>1.029327371971433</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.061077439181403</v>
+        <v>0.9885174980888365</v>
       </c>
       <c r="D23">
-        <v>1.061439492341994</v>
+        <v>1.012539979208307</v>
       </c>
       <c r="E23">
-        <v>1.065750562321907</v>
+        <v>1.00682270509784</v>
       </c>
       <c r="F23">
-        <v>1.073866310645375</v>
+        <v>1.016655795137197</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044575499659265</v>
+        <v>1.041900690083446</v>
       </c>
       <c r="J23">
-        <v>1.067598989546025</v>
+        <v>1.019097938108843</v>
       </c>
       <c r="K23">
-        <v>1.06498648765551</v>
+        <v>1.027559888334589</v>
       </c>
       <c r="L23">
-        <v>1.069282145828865</v>
+        <v>1.021950495165728</v>
       </c>
       <c r="M23">
-        <v>1.077369250838985</v>
+        <v>1.031599021164439</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.063219559531654</v>
+        <v>1.000616340588787</v>
       </c>
       <c r="D24">
-        <v>1.06305248937909</v>
+        <v>1.02149849449959</v>
       </c>
       <c r="E24">
-        <v>1.067599783244402</v>
+        <v>1.016833432685408</v>
       </c>
       <c r="F24">
-        <v>1.075707451390623</v>
+        <v>1.026662167986256</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045056102651841</v>
+        <v>1.045332743685381</v>
       </c>
       <c r="J24">
-        <v>1.069231490549623</v>
+        <v>1.028090685611524</v>
       </c>
       <c r="K24">
-        <v>1.066330784312363</v>
+        <v>1.035158305647088</v>
       </c>
       <c r="L24">
-        <v>1.070863153764761</v>
+        <v>1.030571245468076</v>
       </c>
       <c r="M24">
-        <v>1.078944555030889</v>
+        <v>1.040236703413516</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.065702045544786</v>
+        <v>1.013859003398565</v>
       </c>
       <c r="D25">
-        <v>1.064920586572346</v>
+        <v>1.031331175836808</v>
       </c>
       <c r="E25">
-        <v>1.069743735003671</v>
+        <v>1.027830704055784</v>
       </c>
       <c r="F25">
-        <v>1.077841652257167</v>
+        <v>1.037654660992099</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045606051622895</v>
+        <v>1.049043516998189</v>
       </c>
       <c r="J25">
-        <v>1.071120622810169</v>
+        <v>1.037928792131813</v>
       </c>
       <c r="K25">
-        <v>1.067884325135804</v>
+        <v>1.04346183355513</v>
       </c>
       <c r="L25">
-        <v>1.072693275409668</v>
+        <v>1.040011817321477</v>
       </c>
       <c r="M25">
-        <v>1.080767665029961</v>
+        <v>1.049695263336505</v>
       </c>
     </row>
   </sheetData>
